--- a/data/trans_orig/CALVIDA_SF12_PCB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_PCB-Clase-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,56</t>
+          <t>44,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,75</t>
+          <t>43,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,18</t>
+          <t>44,19</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,21; 44,98</t>
+          <t>44,23; 45,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,41; 44,08</t>
+          <t>43,14; 44,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,9; 44,44</t>
+          <t>43,9; 44,55</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,77</t>
+          <t>43,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,92</t>
+          <t>43,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,84</t>
+          <t>43,64</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,36; 44,14</t>
+          <t>43,0; 43,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,49; 44,3</t>
+          <t>43,35; 44,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,55; 44,12</t>
+          <t>43,22; 43,97</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>43,8</t>
+          <t>42,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>43,35</t>
+          <t>42,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>43,68</t>
+          <t>42,46</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,98; 44,32</t>
+          <t>41,42; 44,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,66; 44,01</t>
+          <t>41,84; 43,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,97; 44,06</t>
+          <t>41,5; 43,64</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,47</t>
+          <t>43,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,27</t>
+          <t>44,63</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,85</t>
+          <t>43,98</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,16; 43,76</t>
+          <t>42,77; 43,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,89; 44,84</t>
+          <t>43,84; 45,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,61; 44,26</t>
+          <t>43,44; 44,89</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,34</t>
+          <t>43,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,57</t>
+          <t>44,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43,49</t>
+          <t>43,9</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,87; 43,87</t>
+          <t>42,74; 44,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,21; 43,89</t>
+          <t>43,32; 45,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,21; 43,79</t>
+          <t>43,35; 44,91</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>42,82</t>
+          <t>42,73</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>43,11</t>
+          <t>43,2</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43,04</t>
+          <t>43,08</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>42,23; 43,4</t>
+          <t>41,77; 43,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,8; 43,47</t>
+          <t>42,75; 43,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>42,75; 43,34</t>
+          <t>42,66; 43,51</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>43,67</t>
+          <t>43,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>43,69</t>
+          <t>43,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>43,68</t>
+          <t>43,61</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,47; 43,83</t>
+          <t>42,56; 43,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,53; 43,95</t>
+          <t>43,53; 44,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,55; 43,83</t>
+          <t>43,17; 43,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CALVIDA_SF12_PCB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_PCB-Clase-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad de vida asociada a la salud (SF12 física)</t>
+          <t>Calidad de vida asociada a la salud (SF12 física) (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CALVIDA_SF12_PCB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_PCB-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,23; 45,15</t>
+          <t>44,25; 45,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,14; 44,01</t>
+          <t>43,11; 44,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,9; 44,55</t>
+          <t>43,86; 44,53</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,0; 43,92</t>
+          <t>43,02; 43,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,35; 44,38</t>
+          <t>43,31; 44,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,22; 43,97</t>
+          <t>43,28; 44,01</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,42; 44,03</t>
+          <t>41,48; 44,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,84; 43,67</t>
+          <t>41,91; 43,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,5; 43,64</t>
+          <t>41,56; 43,66</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,77; 43,62</t>
+          <t>42,79; 43,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,84; 45,49</t>
+          <t>43,81; 45,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,44; 44,89</t>
+          <t>43,43; 44,9</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,74; 44,19</t>
+          <t>42,76; 44,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,32; 45,35</t>
+          <t>43,31; 45,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,35; 44,91</t>
+          <t>43,34; 44,96</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>41,77; 43,52</t>
+          <t>41,84; 43,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,75; 43,64</t>
+          <t>42,75; 43,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>42,66; 43,51</t>
+          <t>42,62; 43,51</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,56; 43,69</t>
+          <t>42,66; 43,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,53; 44,56</t>
+          <t>43,54; 44,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,17; 43,99</t>
+          <t>43,19; 43,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CALVIDA_SF12_PCB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_PCB-Clase-trans_orig.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,57</t>
+          <t>43,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,19</t>
+          <t>44,14</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,25; 45,19</t>
+          <t>44,29; 45,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,11; 44,0</t>
+          <t>43,02; 43,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,86; 44,53</t>
+          <t>43,83; 44,48</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>43,47</t>
+          <t>43,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,85</t>
+          <t>43,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,64</t>
+          <t>43,67</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,02; 43,96</t>
+          <t>43,1; 44,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,31; 44,39</t>
+          <t>43,27; 44,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,28; 44,01</t>
+          <t>43,31; 44,02</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>42,4</t>
+          <t>43,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,75</t>
+          <t>42,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,46</t>
+          <t>43,55</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,48; 44,09</t>
+          <t>43,21; 44,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,91; 43,62</t>
+          <t>42,11; 43,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,56; 43,66</t>
+          <t>43,02; 44,02</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,2</t>
+          <t>43,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,63</t>
+          <t>43,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,98</t>
+          <t>43,54</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,79; 43,6</t>
+          <t>42,85; 43,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,81; 45,52</t>
+          <t>43,57; 44,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,43; 44,9</t>
+          <t>43,28; 43,81</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,56</t>
+          <t>43,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,07</t>
+          <t>43,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43,9</t>
+          <t>43,61</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,76; 44,26</t>
+          <t>43,09; 44,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,31; 45,47</t>
+          <t>43,1; 43,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,34; 44,96</t>
+          <t>43,24; 44,02</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>42,73</t>
+          <t>43,02</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43,08</t>
+          <t>43,16</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>41,84; 43,56</t>
+          <t>42,09; 43,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,75; 43,63</t>
+          <t>42,77; 43,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>42,62; 43,51</t>
+          <t>42,72; 43,56</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>43,32</t>
+          <t>43,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>43,89</t>
+          <t>43,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,66; 43,7</t>
+          <t>43,47; 43,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,54; 44,55</t>
+          <t>43,33; 43,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,19; 43,96</t>
+          <t>43,47; 43,76</t>
         </is>
       </c>
     </row>
